--- a/weather_evaluation.xlsx
+++ b/weather_evaluation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Documents\hackathon-py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Documents\GitHub\hpark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B31291E-5C29-4B07-A512-E81B2D43974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF4E3D6-D0BA-4634-9B93-2B7AFE6E135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -395,7 +395,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -403,7 +403,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -427,7 +427,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
